--- a/Scripts/IS_Sum Analysis For All Splits.xlsx
+++ b/Scripts/IS_Sum Analysis For All Splits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tiwari/Documents/Lab-Work/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3E0180-9D89-EB4B-91D8-613D1D8688AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9620CFB-D770-2243-AE86-AF244C167A49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F1570714-699F-194F-9A17-3F7BD72B51C6}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1505">
   <si>
     <t xml:space="preserve">2wr1A </t>
   </si>
@@ -4563,6 +4563,9 @@
   </si>
   <si>
     <t>IS-Sum_4</t>
+  </si>
+  <si>
+    <t>?x</t>
   </si>
 </sst>
 </file>
@@ -21972,10 +21975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3CC4AD-9719-F349-BD66-D2347553F664}">
-  <dimension ref="A1:F1499"/>
+  <dimension ref="A1:U1499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="88" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="68" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22947,7 +22950,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>185</v>
       </c>
@@ -22967,7 +22970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>188</v>
       </c>
@@ -22987,7 +22990,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>189</v>
       </c>
@@ -23007,7 +23010,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>192</v>
       </c>
@@ -23027,7 +23030,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>193</v>
       </c>
@@ -23047,7 +23050,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -23067,7 +23070,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -23087,7 +23090,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>197</v>
       </c>
@@ -23107,7 +23110,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>198</v>
       </c>
@@ -23127,7 +23130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>199</v>
       </c>
@@ -23147,7 +23150,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>200</v>
       </c>
@@ -23167,7 +23170,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>206</v>
       </c>
@@ -23187,7 +23190,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>209</v>
       </c>
@@ -23207,7 +23210,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>212</v>
       </c>
@@ -23227,7 +23230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>213</v>
       </c>
@@ -23246,8 +23249,11 @@
       <c r="F63" s="3">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="U63" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>223</v>
       </c>
